--- a/franchiseOutliers.xlsx
+++ b/franchiseOutliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f84ae977f9555dd/Fun Stuff/Movies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f84ae977f9555dd/Jobs/Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="8_{48E99839-5A09-4576-864D-0713F56AA441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD38D5CD-B367-45FE-8F20-9A0610F4F12B}"/>
+  <xr:revisionPtr revIDLastSave="360" documentId="8_{48E99839-5A09-4576-864D-0713F56AA441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F252BE3-0365-4009-A165-657AB3372E1A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="911" xr2:uid="{A6A62AA3-9B5E-4788-A42F-38240CC04DF3}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -735,7 +735,7 @@
         <v>878</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H8" si="0">_xlfn.RANK.EQ(E2, $E$2:$E$8, 0)</f>
+        <f>_xlfn.RANK.EQ(E2, $E$2:$E$8, 0)</f>
         <v>3</v>
       </c>
       <c r="I2" s="1">
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J8" si="1">C2/I2</f>
+        <f t="shared" ref="J2:J8" si="0">C2/I2</f>
         <v>1</v>
       </c>
       <c r="K2" s="1">
@@ -776,7 +776,7 @@
         <v>824</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H2:H8" si="1">_xlfn.RANK.EQ(E3, $E$2:$E$8, 0)</f>
         <v>5</v>
       </c>
       <c r="I3" s="1">
@@ -784,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K3" s="1">
@@ -817,7 +817,7 @@
         <v>774</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I4" s="1">
@@ -825,11 +825,11 @@
         <v>3</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K3:K9" si="3">ROUND(J4*E4/G4, 3)</f>
+        <f t="shared" ref="K4:K8" si="3">ROUND(J4*E4/G4, 3)</f>
         <v>0.85399999999999998</v>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>727</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I5" s="1">
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K5" s="1">
@@ -899,7 +899,7 @@
         <v>683</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I6" s="1">
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K6" s="1">
@@ -940,7 +940,7 @@
         <v>641</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I7" s="1">
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K7" s="1">
@@ -981,7 +981,7 @@
         <v>602</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I8" s="1">
@@ -989,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K8" s="1">
@@ -1889,7 +1889,7 @@
         <v>736</v>
       </c>
       <c r="J2" s="1">
-        <f>_xlfn.RANK.EQ(G2, $G$2:$G$11, 0)</f>
+        <f t="shared" ref="J2:J11" si="0">_xlfn.RANK.EQ(G2, $G$2:$G$11, 0)</f>
         <v>1</v>
       </c>
       <c r="K2" s="1">
@@ -1937,7 +1937,7 @@
         <v>670</v>
       </c>
       <c r="J3" s="1">
-        <f>_xlfn.RANK.EQ(G3, $G$2:$G$11, 0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K3" s="1">
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L11" si="0">E3/K3</f>
+        <f t="shared" ref="L3:L11" si="1">E3/K3</f>
         <v>1</v>
       </c>
       <c r="M3" s="1">
@@ -1964,7 +1964,7 @@
         <v>2006</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D11" si="1">C4-C3</f>
+        <f t="shared" ref="D4:D11" si="2">C4-C3</f>
         <v>3</v>
       </c>
       <c r="E4" s="1">
@@ -1977,7 +1977,7 @@
         <v>551</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H11" si="2">ROUND(G4/G3,3)</f>
+        <f t="shared" ref="H4:H11" si="3">ROUND(G4/G3,3)</f>
         <v>1.1060000000000001</v>
       </c>
       <c r="I4" s="1">
@@ -1985,7 +1985,7 @@
         <v>609</v>
       </c>
       <c r="J4" s="1">
-        <f>_xlfn.RANK.EQ(G4, $G$2:$G$11, 0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K4" s="1">
@@ -1993,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="M4" s="1">
@@ -2012,7 +2012,7 @@
         <v>2009</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E5" s="1">
@@ -2025,7 +2025,7 @@
         <v>421</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76400000000000001</v>
       </c>
       <c r="I5" s="1">
@@ -2033,7 +2033,7 @@
         <v>555</v>
       </c>
       <c r="J5" s="1">
-        <f>_xlfn.RANK.EQ(G5, $G$2:$G$11, 0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K5" s="1">
@@ -2041,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M5" s="1">
@@ -2060,7 +2060,7 @@
         <v>2011</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E6" s="1">
@@ -2073,7 +2073,7 @@
         <v>479</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1379999999999999</v>
       </c>
       <c r="I6" s="1">
@@ -2081,7 +2081,7 @@
         <v>505</v>
       </c>
       <c r="J6" s="1">
-        <f>_xlfn.RANK.EQ(G6, $G$2:$G$11, 0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K6" s="1">
@@ -2089,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="M6" s="1">
@@ -2108,7 +2108,7 @@
         <v>2013</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E7" s="1">
@@ -2121,7 +2121,7 @@
         <v>422</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88100000000000001</v>
       </c>
       <c r="I7" s="1">
@@ -2129,7 +2129,7 @@
         <v>459</v>
       </c>
       <c r="J7" s="1">
-        <f>_xlfn.RANK.EQ(G7, $G$2:$G$11, 0)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K7" s="1">
@@ -2137,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="M7" s="1">
@@ -2156,7 +2156,7 @@
         <v>2015</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E8" s="1">
@@ -2169,7 +2169,7 @@
         <v>490</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.161</v>
       </c>
       <c r="I8" s="1">
@@ -2177,7 +2177,7 @@
         <v>418</v>
       </c>
       <c r="J8" s="1">
-        <f>_xlfn.RANK.EQ(G8, $G$2:$G$11, 0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K8" s="1">
@@ -2185,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
       <c r="M8" s="1">
@@ -2204,7 +2204,7 @@
         <v>2017</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E9" s="1">
@@ -2225,7 +2225,7 @@
         <v>380</v>
       </c>
       <c r="J9" s="1">
-        <f>_xlfn.RANK.EQ(G9, $G$2:$G$11, 0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K9" s="1">
@@ -2233,7 +2233,7 @@
         <v>8</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M9" s="1">
@@ -2252,7 +2252,7 @@
         <v>2021</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E10" s="1">
@@ -2273,7 +2273,7 @@
         <v>346</v>
       </c>
       <c r="J10" s="1">
-        <f>_xlfn.RANK.EQ(G10, $G$2:$G$11, 0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K10" s="1">
@@ -2281,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M10" s="1">
@@ -2300,7 +2300,7 @@
         <v>2023</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E11" s="1">
@@ -2313,7 +2313,7 @@
         <v>270</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="I11" s="1">
@@ -2321,7 +2321,7 @@
         <v>315</v>
       </c>
       <c r="J11" s="1">
-        <f>_xlfn.RANK.EQ(G11, $G$2:$G$11, 0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K11" s="1">
@@ -2329,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M11" s="1">
